--- a/topTalkerReport.xlsx
+++ b/topTalkerReport.xlsx
@@ -14,72 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Source Address</t>
   </si>
   <si>
-    <t>fwd_pkts</t>
-  </si>
-  <si>
-    <t>10.71.38.135</t>
-  </si>
-  <si>
-    <t>10.71.38.134</t>
-  </si>
-  <si>
-    <t>172.18.201.1</t>
-  </si>
-  <si>
-    <t>172.18.201.3</t>
-  </si>
-  <si>
-    <t>172.17.1.6</t>
-  </si>
-  <si>
-    <t>172.18.202.1</t>
-  </si>
-  <si>
-    <t>10.244.0.1</t>
-  </si>
-  <si>
-    <t>172.18.11.12</t>
-  </si>
-  <si>
-    <t>10.244.0.6</t>
-  </si>
-  <si>
-    <t>10.244.0.5</t>
-  </si>
-  <si>
-    <t>172.18.201.2</t>
-  </si>
-  <si>
-    <t>172.16.17.18</t>
-  </si>
-  <si>
-    <t>172.16.2.1</t>
-  </si>
-  <si>
-    <t>172.16.10.3</t>
-  </si>
-  <si>
-    <t>172.16.10.1</t>
-  </si>
-  <si>
-    <t>172.16.10.2</t>
-  </si>
-  <si>
-    <t>172.16.10.5</t>
-  </si>
-  <si>
-    <t>172.16.10.6</t>
-  </si>
-  <si>
-    <t>172.18.201.255</t>
-  </si>
-  <si>
-    <t>172.16.10.4</t>
+    <t>fwd_bytes</t>
+  </si>
+  <si>
+    <t>10.0.0.32</t>
+  </si>
+  <si>
+    <t>10.0.240.92</t>
+  </si>
+  <si>
+    <t>10.0.48.97</t>
+  </si>
+  <si>
+    <t>10.9.8.11</t>
+  </si>
+  <si>
+    <t>10.0.48.98</t>
+  </si>
+  <si>
+    <t>10.227.0.4</t>
+  </si>
+  <si>
+    <t>10.227.0.131</t>
+  </si>
+  <si>
+    <t>10.9.8.22</t>
+  </si>
+  <si>
+    <t>10.227.0.5</t>
+  </si>
+  <si>
+    <t>10.9.8.24</t>
+  </si>
+  <si>
+    <t>10.227.0.6</t>
+  </si>
+  <si>
+    <t>10.9.8.23</t>
+  </si>
+  <si>
+    <t>10.9.8.21</t>
+  </si>
+  <si>
+    <t>10.227.0.141</t>
+  </si>
+  <si>
+    <t>10.0.48.102</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>192.168.30.9</t>
+  </si>
+  <si>
+    <t>10.227.0.140</t>
+  </si>
+  <si>
+    <t>10.227.0.147</t>
+  </si>
+  <si>
+    <t>10.227.0.142</t>
+  </si>
+  <si>
+    <t>10.0.240.88</t>
+  </si>
+  <si>
+    <t>192.168.32.101</t>
+  </si>
+  <si>
+    <t>192.168.32.201</t>
+  </si>
+  <si>
+    <t>10.227.0.138</t>
+  </si>
+  <si>
+    <t>10.227.0.134</t>
+  </si>
+  <si>
+    <t>10.227.0.133</t>
+  </si>
+  <si>
+    <t>10.227.0.146</t>
+  </si>
+  <si>
+    <t>10.227.0.66</t>
+  </si>
+  <si>
+    <t>10.227.0.144</t>
+  </si>
+  <si>
+    <t>192.168.32.102</t>
+  </si>
+  <si>
+    <t>10.227.0.3</t>
+  </si>
+  <si>
+    <t>10.227.0.145</t>
+  </si>
+  <si>
+    <t>10.0.0.30</t>
+  </si>
+  <si>
+    <t>192.168.32.103</t>
+  </si>
+  <si>
+    <t>10.227.0.7</t>
+  </si>
+  <si>
+    <t>51.79.161.173</t>
+  </si>
+  <si>
+    <t>118.189.135.26</t>
   </si>
 </sst>
 </file>
@@ -426,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>106122316</v>
+        <v>5356107382</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -457,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>13898385</v>
+        <v>994524718</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -465,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>410533</v>
+        <v>608559230</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -473,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>298301</v>
+        <v>212513602</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -481,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>282275</v>
+        <v>191844369</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -489,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>192642</v>
+        <v>180567277</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -497,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>179956</v>
+        <v>109246428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -505,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>106264</v>
+        <v>93112990</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -513,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>96242</v>
+        <v>59240154</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -521,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>96235</v>
+        <v>41421050</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -529,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>94914</v>
+        <v>41306507</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -537,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>88084</v>
+        <v>34484396</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -545,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>79214</v>
+        <v>30055444</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -553,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>72214</v>
+        <v>29003138</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -561,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>72213</v>
+        <v>20826327</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -569,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>72167</v>
+        <v>12547980</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -577,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>70159</v>
+        <v>11402261</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -585,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>70142</v>
+        <v>11022801</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -593,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>68033</v>
+        <v>10579080</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -601,7 +652,143 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>63003</v>
+        <v>10559367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>6065309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>5970563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>5960363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4841962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>2511595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2378486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2354190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>709058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>494038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>463508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>221298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>221232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>69100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>38544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>31680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>25842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
